--- a/BalanceSheet/HAL_bal.xlsx
+++ b/BalanceSheet/HAL_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>2349000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>225000000.0</v>
+        <v>2349000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>154000000.0</v>
+        <v>2580000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>40000000.0</v>
+        <v>2745000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-79000000.0</v>
+        <v>3220000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>3139000000.0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>205000000.0</v>
+        <v>1769000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>1573000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-189000000.0</v>
+        <v>1548000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-994000000.0</v>
+        <v>1708000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>250000000.0</v>
+        <v>2640000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>2432000000.0</v>
@@ -2991,13 +2991,13 @@
         <v>-2165000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-64000000.0</v>
+        <v>-2166000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-27000000.0</v>
+        <v>-2056000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-353000000.0</v>
+        <v>-2034000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>-1595000000.0</v>
